--- a/Module 2 Everyday Excel Part 2/Week 1 files/Transactions.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Transactions.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB0CE2-E903-486A-9FB7-344DE9133EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41CFE93-093A-4E5B-AAE9-83E39E82B6B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23" yWindow="1065" windowWidth="20528" windowHeight="11550" xr2:uid="{21811030-83FE-448B-A485-942E21891AD6}"/>
+    <workbookView xWindow="2835" yWindow="5235" windowWidth="28500" windowHeight="14955" xr2:uid="{21811030-83FE-448B-A485-942E21891AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,114 +121,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -548,16 +448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9098B5C0-E38A-4F09-B484-BD0C66349A95}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -571,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>349972</v>
       </c>
@@ -583,13 +485,17 @@
       </c>
       <c r="D2" s="2">
         <v>34.869999999999997</v>
+      </c>
+      <c r="F2" t="b">
+        <f>COUNTIFS(B2:B11,B2,C2:C11,C2,D2:D11,D2)&gt;1</f>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.CONCAT(B2:D2)</f>
         <v>Charlie4358934.87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>351536</v>
       </c>
@@ -602,12 +508,16 @@
       <c r="D3" s="2">
         <v>83.09</v>
       </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F11" si="0">COUNTIFS(B3:B12,B3,C3:C12,C3,D3:D12,D3)&gt;1</f>
+        <v>0</v>
+      </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="0">_xlfn.CONCAT(B3:D3)</f>
+        <f t="shared" ref="G3:G11" si="1">_xlfn.CONCAT(B3:D3)</f>
         <v>Charlie4360683.09</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>352247</v>
       </c>
@@ -620,12 +530,16 @@
       <c r="D4" s="2">
         <v>23.19</v>
       </c>
+      <c r="F4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Max4361923.19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>352834</v>
       </c>
@@ -638,12 +552,16 @@
       <c r="D5" s="2">
         <v>74.349999999999994</v>
       </c>
+      <c r="F5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dana4362874.35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>352961</v>
       </c>
@@ -656,12 +574,16 @@
       <c r="D6" s="2">
         <v>34.869999999999997</v>
       </c>
+      <c r="F6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Charlie4363934.87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>353579</v>
       </c>
@@ -674,12 +596,16 @@
       <c r="D7" s="2">
         <v>23.19</v>
       </c>
+      <c r="F7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Max4361923.19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>354311</v>
       </c>
@@ -692,12 +618,16 @@
       <c r="D8" s="2">
         <v>27.17</v>
       </c>
+      <c r="F8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dana4363127.17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>354440</v>
       </c>
@@ -710,12 +640,16 @@
       <c r="D9" s="2">
         <v>12.87</v>
       </c>
+      <c r="F9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dana4364412.87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>355666</v>
       </c>
@@ -728,12 +662,16 @@
       <c r="D10" s="2">
         <v>20.12</v>
       </c>
+      <c r="F10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Charlie4364120.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>355943</v>
       </c>
@@ -746,8 +684,12 @@
       <c r="D11" s="2">
         <v>27.17</v>
       </c>
+      <c r="F11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dana4363127.17</v>
       </c>
     </row>
@@ -767,39 +709,39 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -817,9 +759,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,7 +772,7 @@
         <v>34.869999999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,7 +783,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -852,7 +794,7 @@
         <v>23.19</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -863,7 +805,7 @@
         <v>74.349999999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -874,7 +816,7 @@
         <v>34.869999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -885,7 +827,7 @@
         <v>23.19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -896,7 +838,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -907,7 +849,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,7 +860,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
